--- a/z-assets/nastaveni/PrebiraniDokladu.xlsx
+++ b/z-assets/nastaveni/PrebiraniDokladu.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="GemRid32315"/>
+    <sheet name="List1" sheetId="1" r:id="GemRid491863"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -104,19 +104,19 @@
     <t>Převodka</t>
   </si>
   <si>
+    <t>Prodejka přijatá</t>
+  </si>
+  <si>
     <t>s variabilním symbolem</t>
   </si>
   <si>
-    <t>Prodejka přijatá</t>
+    <t>bez vyřizování</t>
+  </si>
+  <si>
+    <t>výměny</t>
   </si>
   <si>
     <t>Pokladní doklad</t>
-  </si>
-  <si>
-    <t>bez vyřizování</t>
-  </si>
-  <si>
-    <t>výměny</t>
   </si>
   <si>
     <t>s vyřizováním, s variabilním symbolem</t>
@@ -512,8 +512,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.5625" customWidth="1"/>
-    <col min="2" max="2" width="14.27734" customWidth="1"/>
+    <col min="1" max="1" width="14.27734" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
     <col min="3" max="3" width="17.84766" customWidth="1"/>
     <col min="4" max="4" width="14.70703" customWidth="1"/>
     <col min="5" max="5" width="14.27734" customWidth="1"/>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -799,13 +799,13 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
@@ -895,19 +895,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -941,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -958,15 +958,15 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1020,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1207,7 +1207,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -1264,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1303,7 +1303,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>26</v>
@@ -1315,12 +1315,12 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>26</v>
@@ -1332,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -1391,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>6</v>
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1502,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1799,7 +1799,7 @@
         <v>13</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
@@ -1921,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>6</v>
@@ -1972,7 +1972,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>7</v>
@@ -2023,7 +2023,7 @@
         <v>27</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
@@ -2037,7 +2037,7 @@
         <v>9</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>8</v>
@@ -2125,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
@@ -2244,7 +2244,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>10</v>
@@ -2278,7 +2278,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>11</v>
@@ -2346,7 +2346,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>12</v>
@@ -2482,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>15</v>
@@ -2567,7 +2567,7 @@
         <v>21</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>19</v>
@@ -2584,7 +2584,7 @@
         <v>28</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>20</v>

--- a/z-assets/nastaveni/PrebiraniDokladu.xlsx
+++ b/z-assets/nastaveni/PrebiraniDokladu.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="GemRid491863"/>
+    <sheet name="List1" sheetId="1" r:id="GemRid683730"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -47,75 +47,75 @@
     <t>Dodací list přijatý</t>
   </si>
   <si>
+    <t>Reklamace přijatá</t>
+  </si>
+  <si>
+    <t>Objednávka přijatá</t>
+  </si>
+  <si>
+    <t>Poptávka přijatá</t>
+  </si>
+  <si>
     <t>Nabídka vydaná</t>
   </si>
   <si>
-    <t>Objednávka přijatá</t>
+    <t>Nabídka přijatá</t>
+  </si>
+  <si>
+    <t>Objednávka vydaná</t>
   </si>
   <si>
     <t>Servisní doklad</t>
   </si>
   <si>
-    <t>Objednávka vydaná</t>
-  </si>
-  <si>
     <t>spotřebované položky</t>
   </si>
   <si>
     <t>Ne</t>
   </si>
   <si>
-    <t>Poptávka přijatá</t>
-  </si>
-  <si>
     <t>Reklamace vydaná</t>
   </si>
   <si>
     <t>bez vyrizovani</t>
   </si>
   <si>
+    <t>Faktura vydaná</t>
+  </si>
+  <si>
     <t>Poptávka vydaná</t>
   </si>
   <si>
-    <t>Nabídka přijatá</t>
+    <t>Dodací list vydaný</t>
   </si>
   <si>
     <t>Zálohová faktura vydaná</t>
   </si>
   <si>
-    <t>Dodací list vydaný</t>
-  </si>
-  <si>
-    <t>Reklamace přijatá</t>
+    <t>Prodejka vydaná</t>
+  </si>
+  <si>
+    <t>Výrobka</t>
+  </si>
+  <si>
+    <t>Převodka</t>
+  </si>
+  <si>
+    <t>s variabilním symbolem</t>
+  </si>
+  <si>
+    <t>bez vyřizování</t>
+  </si>
+  <si>
+    <t>výměny</t>
   </si>
   <si>
     <t>s vyřizováním</t>
   </si>
   <si>
-    <t>Prodejka vydaná</t>
-  </si>
-  <si>
-    <t>Faktura vydaná</t>
-  </si>
-  <si>
-    <t>Výrobka</t>
-  </si>
-  <si>
-    <t>Převodka</t>
-  </si>
-  <si>
     <t>Prodejka přijatá</t>
   </si>
   <si>
-    <t>s variabilním symbolem</t>
-  </si>
-  <si>
-    <t>bez vyřizování</t>
-  </si>
-  <si>
-    <t>výměny</t>
-  </si>
-  <si>
     <t>Pokladní doklad</t>
   </si>
   <si>
@@ -125,6 +125,9 @@
     <t>vratka bez vyřizování</t>
   </si>
   <si>
+    <t>s texty před/za cenami</t>
+  </si>
+  <si>
     <t>bez čísla objednávky</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
   </si>
   <si>
     <t>bez platností</t>
-  </si>
-  <si>
-    <t>s texty před/za cenami</t>
   </si>
   <si>
     <t>bez vyřizování, s variabilním symbolem</t>
@@ -513,7 +513,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.27734" customWidth="1"/>
-    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="2" max="2" width="14.27734" customWidth="1"/>
     <col min="3" max="3" width="17.84766" customWidth="1"/>
     <col min="4" max="4" width="14.70703" customWidth="1"/>
     <col min="5" max="5" width="14.27734" customWidth="1"/>
@@ -609,24 +609,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -640,61 +640,61 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -708,27 +708,27 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -737,15 +737,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -754,15 +754,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>6</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>6</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>6</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>6</v>
@@ -861,27 +861,27 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>6</v>
@@ -890,32 +890,32 @@
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>6</v>
@@ -924,15 +924,15 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>6</v>
@@ -941,15 +941,15 @@
         <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>6</v>
@@ -958,15 +958,15 @@
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -1048,13 +1048,13 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -1111,12 +1111,12 @@
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -1128,18 +1128,18 @@
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -1162,32 +1162,32 @@
         <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -1196,18 +1196,18 @@
         <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -1230,32 +1230,32 @@
         <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -1264,18 +1264,18 @@
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -1298,15 +1298,15 @@
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
@@ -1315,15 +1315,15 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
@@ -1332,15 +1332,15 @@
         <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
@@ -1349,18 +1349,18 @@
         <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
         <v>3</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
@@ -1383,49 +1383,49 @@
         <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2">
         <v>4</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
@@ -1434,15 +1434,15 @@
         <v>4</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -1459,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
@@ -1468,18 +1468,18 @@
         <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
         <v>4</v>
@@ -1490,30 +1490,30 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
         <v>4</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
@@ -1524,61 +1524,61 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" s="2">
         <v>4</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -1592,27 +1592,27 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2">
         <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>6</v>
@@ -1621,32 +1621,32 @@
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
@@ -1655,32 +1655,32 @@
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
         <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
@@ -1689,15 +1689,15 @@
         <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>6</v>
@@ -1706,41 +1706,41 @@
         <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D72" s="2">
         <v>5</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         <v>22</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
@@ -1757,15 +1757,15 @@
         <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
@@ -1774,12 +1774,12 @@
         <v>5</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>10</v>
@@ -1791,15 +1791,15 @@
         <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
@@ -1808,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -1816,33 +1816,33 @@
         <v>12</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2">
         <v>6</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D78" s="2">
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -1850,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D79" s="2">
         <v>6</v>
@@ -1864,53 +1864,53 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2">
         <v>6</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
         <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -1918,33 +1918,33 @@
         <v>13</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D83" s="2">
         <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2">
         <v>6</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -1955,55 +1955,55 @@
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
         <v>7</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2">
         <v>7</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D87" s="2">
         <v>7</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>6</v>
@@ -2012,32 +2012,32 @@
         <v>7</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
         <v>7</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
@@ -2046,15 +2046,15 @@
         <v>7</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>6</v>
@@ -2063,117 +2063,117 @@
         <v>7</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D92" s="2">
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D93" s="2">
         <v>8</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D94" s="2">
         <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>9</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>9</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
@@ -2187,30 +2187,30 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2">
         <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D100" s="2">
         <v>10</v>
@@ -2224,41 +2224,41 @@
         <v>11</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>10</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>10</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>6</v>
@@ -2272,41 +2272,41 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D105" s="2">
         <v>11</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>19</v>
@@ -2318,15 +2318,15 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>43</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>31</v>
@@ -2352,52 +2352,52 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D109" s="2">
         <v>13</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D110" s="2">
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
         <v>13</v>
@@ -2408,70 +2408,70 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2">
         <v>14</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2">
         <v>14</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D115" s="2">
         <v>15</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -2479,50 +2479,50 @@
         <v>11</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>15</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D117" s="2">
         <v>16</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>16</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -2539,7 +2539,7 @@
         <v>17</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -2547,16 +2547,16 @@
         <v>11</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>18</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -2564,16 +2564,16 @@
         <v>11</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D121" s="2">
         <v>19</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -2581,16 +2581,16 @@
         <v>11</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D122" s="2">
         <v>20</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -2598,16 +2598,16 @@
         <v>11</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D123" s="3">
         <v>21</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/z-assets/nastaveni/PrebiraniDokladu.xlsx
+++ b/z-assets/nastaveni/PrebiraniDokladu.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="GemRid683730"/>
+    <sheet name="List1" sheetId="1" r:id="GemRid110733"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -32,130 +32,130 @@
     <t>Aktivní přebírání</t>
   </si>
   <si>
+    <t>Dodací list přijatý</t>
+  </si>
+  <si>
+    <t>Reklamace vydaná</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Ne</t>
+  </si>
+  <si>
     <t>Faktura přijatá</t>
   </si>
   <si>
-    <t/>
+    <t>Reklamace přijatá</t>
   </si>
   <si>
     <t>Ano</t>
   </si>
   <si>
+    <t>Faktura vydaná</t>
+  </si>
+  <si>
+    <t>Dodací list vydaný</t>
+  </si>
+  <si>
+    <t>Zálohová faktura vydaná</t>
+  </si>
+  <si>
+    <t>Nabídka vydaná</t>
+  </si>
+  <si>
+    <t>Převodka</t>
+  </si>
+  <si>
     <t>Zálohová faktura přijatá</t>
   </si>
   <si>
-    <t>Dodací list přijatý</t>
-  </si>
-  <si>
-    <t>Reklamace přijatá</t>
+    <t>Výrobka</t>
+  </si>
+  <si>
+    <t>Poptávka přijatá</t>
   </si>
   <si>
     <t>Objednávka přijatá</t>
   </si>
   <si>
-    <t>Poptávka přijatá</t>
-  </si>
-  <si>
-    <t>Nabídka vydaná</t>
+    <t>Servisní doklad</t>
+  </si>
+  <si>
+    <t>Poptávka vydaná</t>
+  </si>
+  <si>
+    <t>Objednávka vydaná</t>
   </si>
   <si>
     <t>Nabídka přijatá</t>
   </si>
   <si>
-    <t>Objednávka vydaná</t>
-  </si>
-  <si>
-    <t>Servisní doklad</t>
+    <t>Prodejka vydaná</t>
+  </si>
+  <si>
+    <t>Pokladní doklad</t>
+  </si>
+  <si>
+    <t>Prodejka přijatá</t>
+  </si>
+  <si>
+    <t>Skladový doklad</t>
+  </si>
+  <si>
+    <t>bez čísla dodacího listu</t>
+  </si>
+  <si>
+    <t>bez čísla objednávky</t>
+  </si>
+  <si>
+    <t>bez platností</t>
+  </si>
+  <si>
+    <t>bez vyrizovani</t>
+  </si>
+  <si>
+    <t>bez vyřizování</t>
+  </si>
+  <si>
+    <t>bez vyřizování, s variabilním symbolem</t>
+  </si>
+  <si>
+    <t>Interní doklad</t>
+  </si>
+  <si>
+    <t>číslo objednávky do variabilního symbolu</t>
+  </si>
+  <si>
+    <t>s texty před/za cenami</t>
+  </si>
+  <si>
+    <t>s variabilním symbolem</t>
+  </si>
+  <si>
+    <t>s vyřizováním</t>
+  </si>
+  <si>
+    <t>s vyřizováním, s variabilním symbolem</t>
   </si>
   <si>
     <t>spotřebované položky</t>
   </si>
   <si>
-    <t>Ne</t>
-  </si>
-  <si>
-    <t>Reklamace vydaná</t>
-  </si>
-  <si>
-    <t>bez vyrizovani</t>
-  </si>
-  <si>
-    <t>Faktura vydaná</t>
-  </si>
-  <si>
-    <t>Poptávka vydaná</t>
-  </si>
-  <si>
-    <t>Dodací list vydaný</t>
-  </si>
-  <si>
-    <t>Zálohová faktura vydaná</t>
-  </si>
-  <si>
-    <t>Prodejka vydaná</t>
-  </si>
-  <si>
-    <t>Výrobka</t>
-  </si>
-  <si>
-    <t>Převodka</t>
-  </si>
-  <si>
-    <t>s variabilním symbolem</t>
-  </si>
-  <si>
-    <t>bez vyřizování</t>
+    <t>vratka</t>
+  </si>
+  <si>
+    <t>vratka bez vyřizování</t>
+  </si>
+  <si>
+    <t>vratka s vyřizováním</t>
   </si>
   <si>
     <t>výměny</t>
   </si>
   <si>
-    <t>s vyřizováním</t>
-  </si>
-  <si>
-    <t>Prodejka přijatá</t>
-  </si>
-  <si>
-    <t>Pokladní doklad</t>
-  </si>
-  <si>
-    <t>s vyřizováním, s variabilním symbolem</t>
-  </si>
-  <si>
-    <t>vratka bez vyřizování</t>
-  </si>
-  <si>
-    <t>s texty před/za cenami</t>
-  </si>
-  <si>
-    <t>bez čísla objednávky</t>
-  </si>
-  <si>
-    <t>bez čísla dodacího listu</t>
-  </si>
-  <si>
     <t>závady</t>
-  </si>
-  <si>
-    <t>bez platností</t>
-  </si>
-  <si>
-    <t>bez vyřizování, s variabilním symbolem</t>
-  </si>
-  <si>
-    <t>číslo objednávky do variabilního symbolu</t>
-  </si>
-  <si>
-    <t>vratka</t>
-  </si>
-  <si>
-    <t>vratka s vyřizováním</t>
-  </si>
-  <si>
-    <t>Interní doklad</t>
-  </si>
-  <si>
-    <t>Skladový doklad</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.27734" customWidth="1"/>
-    <col min="2" max="2" width="14.27734" customWidth="1"/>
+    <col min="2" max="2" width="25.98438" customWidth="1"/>
     <col min="3" max="3" width="17.84766" customWidth="1"/>
     <col min="4" max="4" width="14.70703" customWidth="1"/>
     <col min="5" max="5" width="14.27734" customWidth="1"/>
@@ -541,611 +541,611 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
         <v>2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1153,50 +1153,50 @@
         <v>21</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1204,254 +1204,254 @@
         <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
         <v>6</v>
       </c>
-      <c r="D42" s="2">
-        <v>3</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2">
         <v>6</v>
       </c>
-      <c r="D50" s="2">
-        <v>3</v>
-      </c>
       <c r="E50" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2">
         <v>4</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D55" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1459,925 +1459,925 @@
         <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2">
         <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D66" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="2">
         <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D71" s="2">
         <v>5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D72" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D76" s="2">
         <v>5</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D88" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="2">
         <v>6</v>
       </c>
-      <c r="D89" s="2">
-        <v>7</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2">
         <v>7</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D92" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D93" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D94" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D95" s="2">
         <v>8</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D96" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D98" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D99" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D100" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D101" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D102" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D103" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D104" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D105" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D106" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D108" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>41</v>
@@ -2386,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
@@ -2394,33 +2394,33 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="2">
         <v>6</v>
       </c>
-      <c r="D111" s="2">
-        <v>13</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D112" s="2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -2428,33 +2428,33 @@
         <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D113" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D114" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115">
@@ -2462,33 +2462,33 @@
         <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D115" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D116" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
@@ -2496,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>44</v>
@@ -2505,109 +2505,109 @@
         <v>16</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D118" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D119" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D120" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D121" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D122" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D123" s="3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
